--- a/Array_Sum_Performance.xlsx
+++ b/Array_Sum_Performance.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engna\Desktop\Work\6th Semester\Parallel and Distributed Computing\OpenMP_PDC_Assignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A7B507-A0F2-48D1-AF2A-E70157858919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Run Number</t>
   </si>
@@ -33,12 +52,18 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Dynamic with ChunkSize of 100000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +75,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +132,2653 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Execution Time Comparison of Sequential vs Parallel (OpenMP)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40949300087489071"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1613199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5318400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5792200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4005300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.39619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3364199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4769000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4134100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6172599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4383160000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8CB-4843-9D7B-68944747DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.747892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97525700000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34298400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36392000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84142499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46347500000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40940199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36719499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61096499999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58554189999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8CB-4843-9D7B-68944747DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E8CB-4843-9D7B-68944747DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scheduling Type (Static/Dynamic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E8CB-4843-9D7B-68944747DBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="950480240"/>
+        <c:axId val="950476880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="950480240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950476880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="950476880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950480240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Execution Time Comparison of Sequential vs Parallel (OpenMP)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1613199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5318400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5792200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4005300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.39619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3364199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4769000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4134100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6172599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4383160000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2835-4C20-91DD-71906150A054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.747892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97525700000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34298400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36392000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84142499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46347500000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40940199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36719499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61096499999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58554189999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2835-4C20-91DD-71906150A054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2835-4C20-91DD-71906150A054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scheduling Type (Static/Dynamic)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2835-4C20-91DD-71906150A054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="890433952"/>
+        <c:axId val="890431552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="890433952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890431552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="890431552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890433952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7907E3-DA46-4D2C-0087-20352674379D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>484628</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1705265</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>169930</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7DEC96-B68D-863B-18B9-37A64D645E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +2816,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +2850,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +2885,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +3061,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,62 +3094,192 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.1613199999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.747892</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1.5318400000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.97525700000000004</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1.47007</v>
+      </c>
+      <c r="C4">
+        <v>0.732904</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1.5792200000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.34298400000000001</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>1.4005300000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.36392000000000002</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1.39619</v>
+      </c>
+      <c r="C7">
+        <v>0.84142499999999998</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1.3364199999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.46347500000000003</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1.4769000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.40940199999999999</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1.4134100000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.36719499999999999</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>1.6172599999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.61096499999999998</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <f>(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11)/10</f>
+        <v>1.4383160000000001</v>
+      </c>
+      <c r="C12">
+        <f>(C2+C3+C4+C5+C6+C7+C8+C9+C10+C11)/10</f>
+        <v>0.58554189999999995</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>